--- a/src/main/resources/165-mall4cloud/mall4cloud-auth_structure.xlsx
+++ b/src/main/resources/165-mall4cloud/mall4cloud-auth_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="195">
   <si>
     <t>类名</t>
   </si>
@@ -268,10 +268,10 @@
     <t>encryptToken(java.lang.String,java.lang.Integer)</t>
   </si>
   <si>
-    <t>updateUserInfoByUidAndAppId(com.mall4j.cloud.api.auth.bo.UserInfoInTokenBO)</t>
-  </si>
-  <si>
-    <t>lambda$storeAccessToken$0(com.mall4j.cloud.common.security.bo.TokenInfoBO)</t>
+    <t>updateUserInfoByUidAndAppId(java.lang.Long,java.lang.String,com.mall4j.cloud.api.auth.bo.UserInfoInTokenBO)</t>
+  </si>
+  <si>
+    <t>lambda$storeAccessToken$0(com.mall4j.cloud.common.security.bo.TokenInfoBO,java.lang.String,java.lang.String,java.lang.String,java.util.List,java.lang.String,com.mall4j.cloud.api.auth.bo.UserInfoInTokenBO,org.springframework.data.redis.connection.RedisConnection)</t>
   </si>
   <si>
     <t>getAccessKey(java.lang.String)</t>
@@ -587,9 +587,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>updateUserInfoByUidAndAppId(java.lang.Long,java.lang.String,com.mall4j.cloud.api.auth.bo.UserInfoInTokenBO)</t>
   </si>
   <si>
     <t>源接口名</t>
@@ -5031,7 +5028,7 @@
         <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>72</v>
@@ -5048,7 +5045,7 @@
         <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -5065,7 +5062,7 @@
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -5082,7 +5079,7 @@
         <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -5381,10 +5378,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
         <v>190</v>
-      </c>
-      <c r="B1" t="s">
-        <v>191</v>
       </c>
       <c r="C1" t="s">
         <v>184</v>
@@ -5655,10 +5652,10 @@
         <v>183</v>
       </c>
       <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
         <v>192</v>
-      </c>
-      <c r="D1" t="s">
-        <v>193</v>
       </c>
       <c r="E1" t="s">
         <v>186</v>
@@ -5679,16 +5676,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
         <v>190</v>
       </c>
-      <c r="B1" t="s">
-        <v>191</v>
-      </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
         <v>186</v>
@@ -5718,7 +5715,7 @@
         <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
         <v>186</v>
@@ -5858,16 +5855,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
         <v>190</v>
-      </c>
-      <c r="B1" t="s">
-        <v>191</v>
       </c>
       <c r="C1" t="s">
         <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
         <v>186</v>
